--- a/PROJETS/HSN/SQL/gracethd/Fichier type RBAL_11.12.17.xlsx
+++ b/PROJETS/HSN/SQL/gracethd/Fichier type RBAL_11.12.17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\20-MOE70-HSN\07-Scripts\SQL\gracethd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3F253ABA-B5D6-4105-8718-E54389E83762}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3624F58B-8CD6-47AD-B281-96ABB2530333}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2829,8 +2829,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,7 +2854,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>157</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <v>44</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
     </row>
-    <row r="16" spans="2:18" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <v>47</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="P16" s="41"/>
       <c r="Q16" s="41"/>
     </row>
-    <row r="17" spans="2:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>4</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
     </row>
-    <row r="18" spans="2:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <v>2</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="2:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>10</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="2:17" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>11</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="2:17" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>13</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
     </row>
-    <row r="22" spans="2:17" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>14</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
     </row>
-    <row r="23" spans="2:17" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>15</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
     </row>
-    <row r="24" spans="2:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>25</v>
       </c>
@@ -3643,7 +3643,7 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" spans="2:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <v>20</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
     </row>
-    <row r="26" spans="2:17" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>21</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
     </row>
-    <row r="27" spans="2:17" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <v>22</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
     </row>
-    <row r="28" spans="2:17" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>16</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
     </row>
-    <row r="29" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="20">
         <v>17</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="P37" s="26"/>
       <c r="Q37" s="26"/>
     </row>
-    <row r="38" spans="2:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B38" s="20">
         <v>27</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="2:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="20">
         <v>28</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="P39" s="26"/>
       <c r="Q39" s="26"/>
     </row>
-    <row r="40" spans="2:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20">
         <v>29</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
     </row>
-    <row r="41" spans="2:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="20">
         <v>30</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="P41" s="31"/>
       <c r="Q41" s="31"/>
     </row>
-    <row r="42" spans="2:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="20">
         <v>31</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="P42" s="31"/>
       <c r="Q42" s="31"/>
     </row>
-    <row r="43" spans="2:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="20">
         <v>23</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="2:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="20">
         <v>36</v>
       </c>
@@ -4460,7 +4460,7 @@
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
     </row>
-    <row r="47" spans="2:19" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="20">
         <v>37</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
     </row>
-    <row r="48" spans="2:19" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="20">
         <v>38</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
     </row>
-    <row r="52" spans="2:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="20">
         <v>32</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
     </row>
-    <row r="53" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="20">
         <v>35</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
     </row>
-    <row r="54" spans="2:17" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="20">
         <v>34</v>
       </c>
